--- a/ADV_Cars_sales_CarsResearch_performer/Data/Config.xlsx
+++ b/ADV_Cars_sales_CarsResearch_performer/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\UiPath\ADV_Cars_sales_CarsResearch_performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\UiPath\ADV_Cars_sales_CarsResearch\ADV_Cars_sales_CarsResearch_performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2585E0C0-9248-4FD7-A1BF-9371BB8844B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A73427-BDEB-4327-97D0-F626A0898602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>Couldn't log user out.</t>
+  </si>
+  <si>
+    <t>LogMessage_PostConditionTruebranch</t>
+  </si>
+  <si>
+    <t>LogMessage_PostConditionFalsebranch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-Conditions successfully chacked for: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-Conditions check failed for: </t>
   </si>
 </sst>
 </file>
@@ -302,7 +314,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -314,12 +326,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1728,7 +1734,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1936,39 +1942,53 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
